--- a/My test cases.xlsx
+++ b/My test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170A88B-2B06-4FB0-86EB-F0A0B503EA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523629AD-2476-4D22-96DA-513BBFFA4670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89F34FD6-EC75-4762-84C7-9954CB6D1F46}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>Area</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t> </t>
+  </si>
+  <si>
+    <t>fff</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,6 +962,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>

--- a/My test cases.xlsx
+++ b/My test cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\Downloads\Test cases\My-test-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523629AD-2476-4D22-96DA-513BBFFA4670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B905DFA-2D2D-4B44-9510-619E3C652397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89F34FD6-EC75-4762-84C7-9954CB6D1F46}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>Area</t>
   </si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t> </t>
-  </si>
-  <si>
-    <t>fff</t>
   </si>
 </sst>
 </file>
@@ -895,7 +892,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,9 +959,6 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
